--- a/Engineering/Packets-description.xlsx
+++ b/Engineering/Packets-description.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" firstSheet="2" activeTab="9"/>
+    <workbookView windowWidth="24225" windowHeight="12495" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="276">
   <si>
     <t>SettingsModel</t>
   </si>
@@ -112,6 +112,9 @@
     <t>Human human, Mat mat</t>
   </si>
   <si>
+    <t>HumanWithRoi</t>
+  </si>
+  <si>
     <t>Frame</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
   </si>
   <si>
     <t>SendType</t>
-  </si>
-  <si>
-    <t>HumanWithRoi</t>
   </si>
   <si>
     <t>HumanRoi</t>
@@ -261,6 +261,9 @@
     <t>GetPoints</t>
   </si>
   <si>
+    <t xml:space="preserve"> IEnumerable&lt;Point&gt;</t>
+  </si>
+  <si>
     <t>LeftTop </t>
   </si>
   <si>
@@ -276,12 +279,18 @@
     <t>CheckAndConvert</t>
   </si>
   <si>
+    <t>IEnumerable&lt;HumanCheckResult&gt;</t>
+  </si>
+  <si>
     <t>RightBot</t>
   </si>
   <si>
     <t>Human el, out HumanCheckResult res</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>LeftBot </t>
   </si>
   <si>
@@ -300,6 +309,9 @@
     <t>IObservable&lt;Point&gt; point</t>
   </si>
   <si>
+    <t>IObservable&lt;Point&gt;</t>
+  </si>
+  <si>
     <t>Delay</t>
   </si>
   <si>
@@ -309,6 +321,9 @@
     <t>double c</t>
   </si>
   <si>
+    <t>double</t>
+  </si>
+  <si>
     <t>BodyParts</t>
   </si>
   <si>
@@ -318,9 +333,6 @@
     <t>CheckInside</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>ZoneRoiSource</t>
   </si>
   <si>
@@ -330,9 +342,6 @@
     <t>Opacity</t>
   </si>
   <si>
-    <t>double</t>
-  </si>
-  <si>
     <t>Selectable&lt;T&gt;</t>
   </si>
   <si>
@@ -483,6 +492,9 @@
     <t>Mat input</t>
   </si>
   <si>
+    <t>IReadOnlyList&lt;Human&gt;</t>
+  </si>
+  <si>
     <t>Preparer</t>
   </si>
   <si>
@@ -504,10 +516,16 @@
     <t>Detect</t>
   </si>
   <si>
+    <t>Point[,]</t>
+  </si>
+  <si>
+    <t>Point[,] points</t>
+  </si>
+  <si>
     <t>HumanConverter</t>
   </si>
   <si>
-    <t>Point[,] points</t>
+    <t>IEnumerable&lt;Human&gt;</t>
   </si>
   <si>
     <t>IEnumerable&lt;Human&gt; humans</t>
@@ -522,6 +540,9 @@
     <t xml:space="preserve">IReadOnlyList&lt;BodyPartPoint&gt; </t>
   </si>
   <si>
+    <t>Point</t>
+  </si>
+  <si>
     <t>X</t>
   </si>
   <si>
@@ -537,6 +558,9 @@
     <t>CameraId </t>
   </si>
   <si>
+    <t>VideoCapture</t>
+  </si>
+  <si>
     <t>VideoCaptureFileFactory</t>
   </si>
   <si>
@@ -567,6 +591,9 @@
     <t>GetVideoDevices</t>
   </si>
   <si>
+    <t>IEnumerable&lt;VideoDeviceInfo&gt;</t>
+  </si>
+  <si>
     <t>IVideoProcessingHandler</t>
   </si>
   <si>
@@ -591,9 +618,6 @@
     <t>Report</t>
   </si>
   <si>
-    <t>VideoCapture</t>
-  </si>
-  <si>
     <t xml:space="preserve">VideoCapture </t>
   </si>
   <si>
@@ -633,6 +657,9 @@
     <t>IFactory&lt;T&gt;</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>DatabaseContext</t>
   </si>
   <si>
@@ -715,6 +742,9 @@
   </si>
   <si>
     <t>T[,] matrix, int index</t>
+  </si>
+  <si>
+    <t>T[]</t>
   </si>
   <si>
     <t>At&lt;T&gt;</t>
@@ -1016,12 +1046,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1175,12 +1217,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1848,16 +1884,16 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1869,131 +1905,131 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2021,6 +2057,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2049,13 +2086,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2064,7 +2110,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2073,14 +2139,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2097,6 +2161,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2137,6 +2204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2458,18 +2526,18 @@
   <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:G56"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="20.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="30.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="22.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="35.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="10.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="44.7142857142857" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="37.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="34.7142857142857" customWidth="1"/>
     <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2477,136 +2545,145 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="43" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="45"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:7">
-      <c r="A3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="34" t="s">
+      <c r="A3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="C3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="46"/>
+      <c r="D4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" ht="15.75" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" ht="30" spans="1:7">
-      <c r="A11" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="57" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2614,537 +2691,602 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="23"/>
+      <c r="F12" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="11" t="s">
+      <c r="C13" s="46"/>
+      <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="11" t="s">
+      <c r="C14" s="46"/>
+      <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="B16" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="B17" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" ht="15.75" spans="1:3">
-      <c r="A18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
+      <c r="B18" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="10"/>
     </row>
-    <row r="19" ht="15.75"/>
+    <row r="19" ht="15.75" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+    </row>
     <row r="20" ht="15.75" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" ht="15.75" spans="1:7">
       <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="34" t="s">
+      <c r="C22" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:7">
-      <c r="A23" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="E23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="B24" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="B25" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>46</v>
+      <c r="A27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" ht="15.75" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="23" t="s">
-        <v>37</v>
+      <c r="B33" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="61" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" ht="15.75"/>
+    <row r="35" ht="15.75" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
     <row r="36" ht="15.75" spans="1:7">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="43" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56"/>
     </row>
     <row r="38" ht="30.75" spans="1:7">
-      <c r="A38" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="52" t="s">
+      <c r="A38" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="52" t="s">
+      <c r="C38" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="55" t="s">
+      <c r="G38" s="66" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="56" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="59"/>
+      <c r="F39" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="70"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="11" t="s">
+      <c r="C40" s="46"/>
+      <c r="D40" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="30"/>
-      <c r="D41" s="11" t="s">
+      <c r="C41" s="46"/>
+      <c r="D41" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="11" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="23"/>
+      <c r="F42" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G42" s="8"/>
     </row>
     <row r="43" ht="15.75" spans="1:7">
-      <c r="A43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" ht="15.75"/>
+    <row r="44" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+    </row>
     <row r="45" ht="15.75" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="2"/>
     </row>
     <row r="46" ht="15.75" spans="1:7">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="43" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="56"/>
     </row>
     <row r="47" ht="30" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="34" t="s">
+      <c r="C47" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="35" t="s">
+      <c r="F47" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="36" t="s">
+      <c r="G47" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="30"/>
-      <c r="D48" s="11" t="s">
+      <c r="C48" s="46"/>
+      <c r="D48" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="23"/>
+      <c r="F48" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G48" s="8"/>
     </row>
     <row r="49" ht="15.75" spans="1:7">
-      <c r="A49" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="12" t="s">
+      <c r="B49" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="E49" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="B50" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="C50" s="8"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="23" t="s">
+      <c r="A51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C51" s="8"/>
     </row>
     <row r="52" ht="15.75" spans="1:3">
-      <c r="A52" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C52" s="10"/>
     </row>
-    <row r="53" ht="15.75"/>
+    <row r="53" ht="15.75" spans="1:7">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+    </row>
     <row r="54" ht="15.75" spans="1:7">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" ht="15.75" spans="1:7">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="32"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="42"/>
       <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
       <c r="G55" s="2"/>
     </row>
     <row r="56" ht="30" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="29" t="s">
+      <c r="C56" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="17" t="s">
+      <c r="E56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="F56" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -3152,147 +3294,161 @@
       </c>
     </row>
     <row r="57" ht="15.75" spans="1:7">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="11" t="s">
+      <c r="C57" s="46"/>
+      <c r="D57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="25" t="s">
+        <v>75</v>
+      </c>
       <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="23" t="s">
+      <c r="B58" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E59" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B59" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="25" t="s">
+        <v>81</v>
+      </c>
       <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E60" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F60" s="23"/>
+        <v>82</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="23"/>
+        <v>85</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="B62" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" ht="15.75" spans="1:7">
       <c r="A63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="F63" s="18"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>95</v>
+      </c>
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="60" t="s">
-        <v>92</v>
+        <v>96</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>97</v>
       </c>
       <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="C65" s="8"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B66" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C66" s="8"/>
@@ -3301,115 +3457,131 @@
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>37</v>
+      <c r="B67" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C67" s="8"/>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="23" t="s">
-        <v>37</v>
+        <v>100</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C68" s="8"/>
     </row>
     <row r="69" ht="15.75" spans="1:3">
       <c r="A69" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="C69" s="10"/>
     </row>
-    <row r="70" ht="15.75"/>
+    <row r="70" ht="15.75" spans="1:7">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
+    </row>
     <row r="71" ht="15.75" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="B71" s="14"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="17"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="34" t="s">
+      <c r="A73" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="23" t="s">
-        <v>101</v>
+      <c r="A74" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>104</v>
       </c>
       <c r="C74" s="8"/>
     </row>
     <row r="75" ht="15.75" spans="1:3">
-      <c r="A75" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>45</v>
+      <c r="A75" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C75" s="10"/>
     </row>
-    <row r="76" ht="15.75"/>
+    <row r="76" ht="15.75" spans="1:7">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+    </row>
     <row r="77" ht="15.75" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
+        <v>106</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
       <c r="G77" s="2"/>
     </row>
     <row r="78" ht="15.75" spans="1:7">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="32"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="42"/>
       <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" ht="30" spans="1:7">
+    <row r="79" spans="1:7">
       <c r="A79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B79" s="17" t="s">
+      <c r="B79" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="17" t="s">
+      <c r="E79" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -3417,63 +3589,73 @@
       </c>
     </row>
     <row r="80" ht="15.75" spans="1:7">
-      <c r="A80" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C80" s="31"/>
-      <c r="D80" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E80" s="48" t="s">
+      <c r="A80" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="41"/>
+      <c r="D80" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E80" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="F80" s="18"/>
+      <c r="F80" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" ht="15.75"/>
+    <row r="81" spans="1:7">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+    </row>
     <row r="82" ht="15.75" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B82" s="13"/>
+        <v>110</v>
+      </c>
+      <c r="B82" s="14"/>
       <c r="C82" s="2"/>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="17"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="34" t="s">
+      <c r="A84" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B85" s="23" t="s">
-        <v>109</v>
+      <c r="A85" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="C85" s="8"/>
     </row>
     <row r="86" ht="15.75" spans="1:3">
-      <c r="A86" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>111</v>
+      <c r="A86" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="61" t="s">
+        <v>114</v>
       </c>
       <c r="C86" s="10"/>
     </row>
@@ -3517,8 +3699,8 @@
   <sheetPr/>
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.0761904761905" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -3530,13 +3712,13 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B2" s="4"/>
     </row>
@@ -3550,104 +3732,107 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B4" s="8"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B5" s="8"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B6" s="8"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B8" s="8"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B11" s="8"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" ht="15.75" spans="1:2">
       <c r="A18" s="9" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" ht="15.75"/>
+    <row r="19" ht="15.75" spans="1:2">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
     <row r="20" ht="15.75" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21" ht="15.75" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B21" s="4"/>
     </row>
@@ -3661,26 +3846,29 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B23" s="8"/>
     </row>
     <row r="24" ht="15.75" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B24" s="10"/>
     </row>
-    <row r="25" ht="15.75"/>
+    <row r="25" ht="15.75" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+    </row>
     <row r="26" ht="15.75" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" ht="15.75" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B27" s="4"/>
     </row>
@@ -3693,14 +3881,14 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
-        <v>264</v>
+      <c r="A29" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="B29" s="8"/>
     </row>
     <row r="30" ht="15.75" spans="1:2">
-      <c r="A30" s="12" t="s">
-        <v>265</v>
+      <c r="A30" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="B30" s="10"/>
     </row>
@@ -3723,8 +3911,8 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:C25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3736,23 +3924,23 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="13"/>
+        <v>115</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3760,43 +3948,47 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>41</v>
       </c>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" ht="15.75"/>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+    </row>
     <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B7" s="13"/>
+        <v>116</v>
+      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3804,70 +3996,74 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>115</v>
+      <c r="A10" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>117</v>
+      <c r="A11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
+      <c r="B12" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>119</v>
+      <c r="A13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>119</v>
+      <c r="A14" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" ht="15.75"/>
+    <row r="15" ht="15.75" spans="1:3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+    </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="13"/>
+        <v>124</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3875,52 +4071,56 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:3">
+      <c r="A21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:3">
-      <c r="A21" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" ht="15.75"/>
+    <row r="22" ht="15.75" spans="1:3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
     <row r="23" ht="15.75" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="13"/>
+        <v>129</v>
+      </c>
+      <c r="B23" s="14"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" ht="15.75" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -3928,43 +4128,47 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="23" t="s">
-        <v>127</v>
+      <c r="B26" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="C26" s="8"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>129</v>
+      <c r="A27" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>132</v>
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" ht="15.75"/>
+    <row r="28" ht="15.75" spans="1:3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
     <row r="29" ht="15.75" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -3972,43 +4176,47 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>119</v>
+      <c r="A33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C33" s="10"/>
     </row>
-    <row r="34" ht="15.75"/>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
     <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B35" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="B35" s="14"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -4016,70 +4224,74 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>133</v>
+      <c r="B38" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>135</v>
+      <c r="A39" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>138</v>
       </c>
       <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>137</v>
+      <c r="A40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>140</v>
       </c>
       <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>119</v>
+      <c r="A41" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="C41" s="8"/>
     </row>
     <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>119</v>
+      <c r="A42" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C42" s="10"/>
     </row>
-    <row r="43" ht="15.75"/>
+    <row r="43" ht="15.75" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
     <row r="44" ht="15.75" spans="1:3">
       <c r="A44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B44" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="B44" s="14"/>
       <c r="C44" s="2"/>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -4087,43 +4299,47 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="24" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="8"/>
     </row>
     <row r="48" ht="15.75" spans="1:3">
-      <c r="A48" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>141</v>
+      <c r="A48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>144</v>
       </c>
       <c r="C48" s="10"/>
     </row>
-    <row r="49" ht="15.75"/>
+    <row r="49" ht="15.75" spans="1:3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
     <row r="50" ht="15.75" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="B50" s="14"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" ht="15.75" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -4131,29 +4347,29 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>143</v>
+      <c r="A53" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>146</v>
       </c>
       <c r="C53" s="8"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>119</v>
+      <c r="A54" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="C54" s="8"/>
     </row>
     <row r="55" ht="15.75" spans="1:3">
-      <c r="A55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>119</v>
+      <c r="A55" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>122</v>
       </c>
       <c r="C55" s="10"/>
     </row>
@@ -4186,8 +4402,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4205,43 +4421,43 @@
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:7">
-      <c r="A3" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -4250,50 +4466,60 @@
     </row>
     <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F4" s="18"/>
+        <v>149</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>152</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" ht="15.75"/>
+    <row r="6" ht="15.75" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
     <row r="7" ht="15.75" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4301,74 +4527,82 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>37</v>
+      <c r="A10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>37</v>
+      <c r="A11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>45</v>
+      <c r="A12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" ht="15.75"/>
+    <row r="13" ht="15.75" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+    </row>
     <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -4376,46 +4610,57 @@
       </c>
     </row>
     <row r="17" ht="15.75" spans="1:7">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" ht="15.75" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" ht="15.75" spans="1:4">
+      <c r="A19" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" ht="15.75" spans="1:4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" ht="22" customHeight="1" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4423,40 +4668,50 @@
       </c>
     </row>
     <row r="22" ht="15.75" spans="1:4">
-      <c r="A22" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="18"/>
+      <c r="A22" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" ht="15.75"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
     <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4464,50 +4719,62 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C27" s="23"/>
+      <c r="B27" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>163</v>
+      </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" ht="15.75" spans="1:4">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="18"/>
+      <c r="B28" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>160</v>
+      </c>
       <c r="D28" s="10"/>
     </row>
-    <row r="29" ht="15.75"/>
+    <row r="29" ht="15.75" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+    </row>
     <row r="30" ht="15.75" spans="1:4">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" ht="15.75" spans="1:4">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4515,35 +4782,45 @@
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:4">
-      <c r="A33" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="18"/>
+      <c r="A33" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" ht="15.75"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+    </row>
     <row r="35" ht="15.75" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="13"/>
+        <v>111</v>
+      </c>
+      <c r="B35" s="14"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" ht="15.75" spans="1:3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -4551,43 +4828,51 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="45"/>
     </row>
     <row r="39" ht="15.75" spans="1:3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" ht="15.75"/>
+      <c r="B39" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="53"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+    </row>
     <row r="41" ht="15.75" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="B41" s="14"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" ht="15.75" spans="1:3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -4595,22 +4880,22 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C44" s="8"/>
+      <c r="A44" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="45"/>
     </row>
     <row r="45" ht="15.75" spans="1:3">
-      <c r="A45" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C45" s="10"/>
+      <c r="A45" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4643,8 +4928,8 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4654,51 +4939,51 @@
     <col min="3" max="3" width="10.5714285714286" customWidth="1"/>
     <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="48.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="23.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="27.6857142857143" customWidth="1"/>
     <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -4706,62 +4991,74 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="15.75"/>
+    <row r="5" ht="15.75" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
     <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+        <v>175</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" ht="15.75" spans="1:7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -4769,133 +5066,163 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>174</v>
+      </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="15.75"/>
+    <row r="10" ht="15.75" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
     <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" ht="15.75" spans="1:7">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="34" t="s">
+      <c r="C13" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="A14" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="G14" s="8"/>
     </row>
     <row r="15" ht="15.75" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="23"/>
+      <c r="A15" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="G15" s="8"/>
     </row>
     <row r="16" ht="15.75" spans="4:7">
-      <c r="D16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>185</v>
+      </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" ht="15.75"/>
+    <row r="17" ht="15.75" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
     <row r="18" ht="15.75" spans="1:4">
-      <c r="A18" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="A18" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" ht="45" spans="1:4">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4903,109 +5230,129 @@
       </c>
     </row>
     <row r="21" ht="15.75" spans="1:4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" ht="15.75"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+    </row>
     <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" ht="15.75" spans="1:7">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="42"/>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="C25" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:7">
-      <c r="A26" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="18"/>
+      <c r="A26" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G26" s="10"/>
     </row>
     <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>183</v>
+      <c r="A27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" ht="15.75"/>
+    <row r="28" ht="15.75" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
     <row r="29" ht="15.75" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="B29" s="14"/>
       <c r="C29" s="2"/>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -5013,28 +5360,28 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="B32" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>70</v>
       </c>
       <c r="C33" s="8"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="10"/>
@@ -5068,136 +5415,146 @@
   <sheetPr/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="38.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="10.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28.3238095238095" customWidth="1"/>
     <col min="4" max="4" width="19.8571428571429" customWidth="1"/>
-    <col min="5" max="5" width="83.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="27.2" customWidth="1"/>
+    <col min="6" max="6" width="32.1428571428571" customWidth="1"/>
     <col min="7" max="7" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" ht="30" spans="1:7">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="10"/>
+    <row r="4" ht="60.75" spans="1:7">
+      <c r="A4" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>45</v>
+      <c r="A5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" ht="15.75"/>
+    <row r="6" ht="15.75" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
     <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+        <v>198</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" ht="15.75" spans="1:7">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" ht="30" spans="1:7">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="33" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -5205,40 +5562,52 @@
       </c>
     </row>
     <row r="10" ht="15.75" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="A10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>185</v>
+      </c>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="15.75"/>
+    <row r="11" ht="15.75" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+    </row>
     <row r="12" ht="15.75" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" ht="15.75" spans="1:3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -5246,43 +5615,51 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>85</v>
+      <c r="A15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>37</v>
+      <c r="B16" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="10"/>
     </row>
-    <row r="17" ht="15.75"/>
+    <row r="17" ht="15.75" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
     <row r="18" ht="15.75" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="13"/>
+        <v>203</v>
+      </c>
+      <c r="B18" s="14"/>
       <c r="C18" s="2"/>
     </row>
     <row r="19" ht="15.75" spans="1:3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -5290,48 +5667,56 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>30</v>
+      <c r="A21" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" ht="15.75" spans="1:3">
-      <c r="A22" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>85</v>
+      <c r="A22" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>88</v>
       </c>
       <c r="C22" s="10"/>
     </row>
-    <row r="23" ht="15.75"/>
+    <row r="23" ht="15.75" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
     <row r="24" ht="15.75" spans="1:4">
-      <c r="A24" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="45" spans="1:4">
+    <row r="26" ht="18" customHeight="1" spans="1:4">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -5339,11 +5724,15 @@
       </c>
     </row>
     <row r="27" ht="15.75" spans="1:4">
-      <c r="A27" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>207</v>
+      </c>
       <c r="D27" s="10"/>
     </row>
   </sheetData>
@@ -5371,8 +5760,8 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C18"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5388,45 +5777,45 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+        <v>208</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -5434,76 +5823,88 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>201</v>
+      <c r="A4" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>210</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="E4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>202</v>
+      <c r="B5" s="24" t="s">
+        <v>211</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>203</v>
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>212</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>205</v>
+      <c r="A7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>214</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" ht="15.75" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>206</v>
+      <c r="A8" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>215</v>
       </c>
       <c r="C8" s="10"/>
     </row>
-    <row r="9" ht="15.75"/>
+    <row r="9" ht="15.75" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
     <row r="10" ht="15.75" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="13"/>
+        <v>216</v>
+      </c>
+      <c r="B10" s="14"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -5511,43 +5912,51 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>85</v>
+      <c r="A13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
+      <c r="B14" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" ht="15.75"/>
+    <row r="15" ht="15.75" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+    </row>
     <row r="16" ht="15.75" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" s="13"/>
+        <v>217</v>
+      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" ht="15.75" spans="1:3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -5555,70 +5964,78 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>85</v>
+      <c r="A19" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>85</v>
+      <c r="A20" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>85</v>
+      <c r="A21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>163</v>
+      <c r="A22" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>170</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>163</v>
+      <c r="A23" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="C23" s="10"/>
     </row>
-    <row r="24" ht="15.75"/>
+    <row r="24" ht="15.75" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
     <row r="25" ht="15.75" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="13"/>
+        <v>220</v>
+      </c>
+      <c r="B25" s="14"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -5626,61 +6043,69 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>85</v>
+      <c r="A28" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>85</v>
+      <c r="A29" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>85</v>
+      <c r="A30" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" ht="15.75" spans="1:3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>37</v>
+      <c r="B31" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" ht="15.75"/>
+    <row r="32" ht="15.75" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
     <row r="33" ht="15.75" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B33" s="13"/>
+        <v>223</v>
+      </c>
+      <c r="B33" s="14"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -5688,52 +6113,60 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>85</v>
+      <c r="A36" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:3">
+      <c r="A38" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" ht="15.75" spans="1:3">
-      <c r="A38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>37</v>
+      <c r="B38" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" ht="15.75"/>
+    <row r="39" ht="15.75" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
     <row r="40" ht="15.75" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="13"/>
+        <v>225</v>
+      </c>
+      <c r="B40" s="14"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -5741,20 +6174,20 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>85</v>
+      <c r="A43" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>88</v>
       </c>
       <c r="C43" s="8"/>
     </row>
     <row r="44" ht="15.75" spans="1:3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>37</v>
+      <c r="B44" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C44" s="10"/>
     </row>
@@ -5785,12 +6218,12 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="14.0857142857143" customWidth="1"/>
     <col min="2" max="2" width="31.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
@@ -5801,33 +6234,33 @@
   <sheetData>
     <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+        <v>226</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="24" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="25"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" ht="30" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5836,10 +6269,10 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -5847,65 +6280,75 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>37</v>
+      <c r="B4" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="18"/>
+      <c r="D4" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>37</v>
+      <c r="B5" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
+      <c r="A6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C6" s="10"/>
     </row>
-    <row r="7" ht="15.75"/>
+    <row r="7" ht="15.75" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
     <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
+      <c r="A8" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" ht="15.75" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" ht="30" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -5913,13 +6356,15 @@
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="A11" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="D11" s="10"/>
     </row>
   </sheetData>
@@ -5940,42 +6385,42 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="52.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="14.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="25.5238095238095" customWidth="1"/>
     <col min="4" max="4" width="10.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:4">
-      <c r="A1" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" ht="37" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -5983,50 +6428,59 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="23"/>
+      <c r="A4" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>168</v>
+      </c>
       <c r="D4" s="8"/>
     </row>
     <row r="5" ht="15.75" spans="1:4">
-      <c r="A5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="18"/>
+      <c r="A5" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" ht="15.75"/>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
     <row r="7" ht="15.75" spans="1:4">
-      <c r="A7" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="A7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" ht="15.75" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" ht="30" spans="1:4">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -6034,50 +6488,59 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="23"/>
+      <c r="A10" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>236</v>
+      </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" ht="15.75" spans="1:4">
-      <c r="A11" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="A11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>207</v>
+      </c>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" ht="15.75"/>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
     <row r="13" ht="15.75" spans="1:4">
-      <c r="A13" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
+      <c r="A13" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" ht="15.75" spans="1:4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -6085,50 +6548,59 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="23"/>
+      <c r="A16" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>84</v>
+      </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" ht="15.75" spans="1:4">
-      <c r="A17" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C17" s="18"/>
+      <c r="A17" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>114</v>
+      </c>
       <c r="D17" s="10"/>
     </row>
-    <row r="18" ht="15.75"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
     <row r="19" ht="15.75" spans="1:4">
-      <c r="A19" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="A19" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" ht="15.75" spans="1:4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" ht="30" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -6136,41 +6608,49 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="C22" s="23"/>
+      <c r="A22" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="C23" s="23"/>
+      <c r="A23" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="25" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" ht="15.75" spans="1:4">
-      <c r="A25" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="A25" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="D25" s="10"/>
     </row>
   </sheetData>
@@ -6195,30 +6675,30 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C3"/>
+      <selection activeCell="A10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="13"/>
+        <v>250</v>
+      </c>
+      <c r="B1" s="14"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6226,34 +6706,38 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>37</v>
+      <c r="A4" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" ht="15.75"/>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+    </row>
     <row r="6" ht="15.75" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" s="13"/>
+        <v>252</v>
+      </c>
+      <c r="B6" s="14"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" ht="15.75" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -6261,34 +6745,38 @@
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>37</v>
+      <c r="A9" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" ht="15.75"/>
+    <row r="10" ht="15.75" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
     <row r="11" ht="15.75" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>253</v>
+      </c>
+      <c r="B11" s="14"/>
       <c r="C11" s="2"/>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -6296,11 +6784,11 @@
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>37</v>
+      <c r="A14" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="10"/>
     </row>

--- a/Engineering/Packets-description.xlsx
+++ b/Engineering/Packets-description.xlsx
@@ -874,7 +874,7 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,6 +887,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1884,55 +1892,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1941,95 +1946,98 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2095,18 +2103,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2125,7 +2136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2139,7 +2150,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2179,7 +2190,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
@@ -2194,7 +2205,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2202,8 +2213,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2526,8 +2540,8 @@
   <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2557,34 +2571,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
     </row>
     <row r="3" ht="54" customHeight="1" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2595,17 +2609,17 @@
       <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="58" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="12" t="s">
@@ -2667,14 +2681,14 @@
       <c r="F10" s="14"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" ht="30" spans="1:7">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="58" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -2683,7 +2697,7 @@
       <c r="E11" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2697,14 +2711,14 @@
       <c r="B12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="46"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="8"/>
@@ -2716,14 +2730,14 @@
       <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="8"/>
@@ -2735,14 +2749,14 @@
       <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="8"/>
@@ -2754,7 +2768,7 @@
       <c r="B15" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="46"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
@@ -2818,34 +2832,34 @@
         <v>1</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="54" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-    </row>
-    <row r="22" ht="30" spans="1:7">
-      <c r="A22" s="43" t="s">
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2856,14 +2870,14 @@
       <c r="B23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="46"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="10"/>
@@ -2928,13 +2942,13 @@
       <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2960,7 +2974,7 @@
       <c r="A34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="62" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="10"/>
@@ -2990,55 +3004,55 @@
         <v>1</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="54" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
-    </row>
-    <row r="38" ht="30.75" spans="1:7">
-      <c r="A38" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="63" t="s">
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
+    </row>
+    <row r="38" ht="15.75" spans="1:7">
+      <c r="A38" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="63" t="s">
+      <c r="C38" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="68" t="s">
+      <c r="B39" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="67" t="s">
+      <c r="C39" s="70"/>
+      <c r="D39" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="68" t="s">
+      <c r="E39" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="72"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12" t="s">
@@ -3047,14 +3061,14 @@
       <c r="B40" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="46"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="12" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="8"/>
@@ -3066,14 +3080,14 @@
       <c r="B41" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="46"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="12" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="25" t="s">
+      <c r="F41" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="8"/>
@@ -3085,14 +3099,14 @@
       <c r="B42" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="12" t="s">
         <v>66</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="25" t="s">
+      <c r="F42" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G42" s="8"/>
@@ -3104,19 +3118,19 @@
       <c r="B43" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="41"/>
+      <c r="C43" s="42"/>
       <c r="D43" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F43" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" ht="15.75" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -3141,34 +3155,34 @@
         <v>1</v>
       </c>
       <c r="B46" s="16"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="54" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
-    </row>
-    <row r="47" ht="30" spans="1:7">
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="43" t="s">
+      <c r="C47" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3179,14 +3193,14 @@
       <c r="B48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="46"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="25" t="s">
+      <c r="F48" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G48" s="8"/>
@@ -3198,14 +3212,14 @@
       <c r="B49" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="46"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="26" t="s">
+      <c r="F49" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G49" s="10"/>
@@ -3262,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="B55" s="16"/>
-      <c r="C55" s="42"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="1" t="s">
         <v>2</v>
       </c>
@@ -3270,14 +3284,14 @@
       <c r="F55" s="14"/>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" ht="30" spans="1:7">
+    <row r="56" spans="1:7">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="33" t="s">
+      <c r="C56" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -3286,7 +3300,7 @@
       <c r="E56" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -3300,11 +3314,11 @@
       <c r="B57" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E57" s="25" t="s">
+      <c r="E57" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="25" t="s">
@@ -3319,14 +3333,14 @@
       <c r="B58" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="46"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G58" s="8"/>
@@ -3338,7 +3352,7 @@
       <c r="B59" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="46"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="12" t="s">
         <v>80</v>
       </c>
@@ -3357,7 +3371,7 @@
       <c r="B60" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C60" s="46"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="12" t="s">
         <v>39</v>
       </c>
@@ -3376,7 +3390,7 @@
       <c r="B61" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C61" s="46"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="12" t="s">
         <v>39</v>
       </c>
@@ -3395,7 +3409,7 @@
       <c r="B62" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="46"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="12" t="s">
         <v>89</v>
       </c>
@@ -3414,7 +3428,7 @@
       <c r="B63" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="46"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="13" t="s">
         <v>93</v>
       </c>
@@ -3430,7 +3444,7 @@
       <c r="A64" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="73" t="s">
         <v>97</v>
       </c>
       <c r="C64" s="8"/>
@@ -3484,10 +3498,10 @@
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
-      <c r="F70" s="72"/>
-      <c r="G70" s="72"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="74"/>
+      <c r="G70" s="74"/>
     </row>
     <row r="71" ht="15.75" spans="1:3">
       <c r="A71" s="1" t="s">
@@ -3504,13 +3518,13 @@
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B73" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3557,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="16"/>
-      <c r="C78" s="42"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3586,7 @@
       <c r="B79" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -3581,7 +3595,7 @@
       <c r="E79" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -3595,11 +3609,11 @@
       <c r="B80" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="41"/>
+      <c r="C80" s="42"/>
       <c r="D80" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="60" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="26" t="s">
@@ -3607,7 +3621,7 @@
       </c>
       <c r="G80" s="10"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" ht="15.75" spans="1:7">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -3631,13 +3645,13 @@
       <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B84" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="45" t="s">
+      <c r="C84" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3654,7 +3668,7 @@
       <c r="A86" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B86" s="61" t="s">
+      <c r="B86" s="62" t="s">
         <v>114</v>
       </c>
       <c r="C86" s="10"/>
@@ -3911,7 +3925,7 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A49" sqref="A49:C49"/>
     </sheetView>
   </sheetViews>
@@ -4402,8 +4416,8 @@
   <sheetPr/>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4429,26 +4443,26 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" ht="15.75" spans="1:7">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="27" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:7">
-      <c r="A3" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4457,7 +4471,7 @@
       <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -4471,7 +4485,7 @@
       <c r="B4" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="13" t="s">
         <v>150</v>
       </c>
@@ -4593,7 +4607,7 @@
       <c r="B16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -4602,7 +4616,7 @@
       <c r="E16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="F16" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -4616,7 +4630,7 @@
       <c r="B17" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="13" t="s">
         <v>159</v>
       </c>
@@ -4660,7 +4674,7 @@
       <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -4679,7 +4693,7 @@
       </c>
       <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" ht="15.75" spans="1:7">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -4711,7 +4725,7 @@
       <c r="B26" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -4774,7 +4788,7 @@
       <c r="B32" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -4788,12 +4802,12 @@
       <c r="B33" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="10"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" ht="15.75" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -4834,7 +4848,7 @@
       <c r="B38" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="45"/>
+      <c r="C38" s="46"/>
     </row>
     <row r="39" ht="15.75" spans="1:3">
       <c r="A39" s="13" t="s">
@@ -4843,7 +4857,7 @@
       <c r="B39" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="54"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="11"/>
@@ -4886,7 +4900,7 @@
       <c r="B44" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="45"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" ht="15.75" spans="1:3">
       <c r="A45" s="13" t="s">
@@ -4895,7 +4909,7 @@
       <c r="B45" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="53"/>
+      <c r="C45" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4929,7 +4943,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4959,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16"/>
-      <c r="C2" s="42"/>
+      <c r="C2" s="43"/>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4974,7 +4988,7 @@
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -4983,7 +4997,7 @@
       <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -4997,11 +5011,11 @@
       <c r="B4" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="26" t="s">
@@ -5034,7 +5048,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="16"/>
-      <c r="C7" s="42"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
@@ -5049,7 +5063,7 @@
       <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5058,7 +5072,7 @@
       <c r="E8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -5072,11 +5086,11 @@
       <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="41"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="26" t="s">
@@ -5109,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="16"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="5" t="s">
         <v>2</v>
       </c>
@@ -5124,19 +5138,19 @@
       <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5147,11 +5161,11 @@
       <c r="B14" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="25" t="s">
@@ -5166,14 +5180,14 @@
       <c r="B15" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="27" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="8"/>
@@ -5182,7 +5196,7 @@
       <c r="D16" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="26" t="s">
@@ -5222,7 +5236,7 @@
       <c r="B20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -5236,12 +5250,12 @@
       <c r="B21" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="10"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="15.75" spans="1:7">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -5266,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="16"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="5" t="s">
         <v>2</v>
       </c>
@@ -5281,19 +5295,19 @@
       <c r="B25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="C25" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="44" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="46" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5304,14 +5318,14 @@
       <c r="B26" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="13" t="s">
         <v>190</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G26" s="10"/>
@@ -5416,7 +5430,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5447,12 +5461,12 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -5461,7 +5475,7 @@
       <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -5478,23 +5492,23 @@
       </c>
     </row>
     <row r="4" ht="60.75" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="13" t="s">
@@ -5531,12 +5545,12 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
-      <c r="G8" s="28"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
@@ -5545,7 +5559,7 @@
       <c r="B9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -5568,11 +5582,11 @@
       <c r="B10" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="41"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="28" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="26" t="s">
@@ -5727,7 +5741,7 @@
       <c r="A27" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="26" t="s">
@@ -5760,8 +5774,8 @@
   <sheetPr/>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5792,12 +5806,12 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -5809,13 +5823,13 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -5830,13 +5844,13 @@
         <v>210</v>
       </c>
       <c r="C4" s="8"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="10"/>
@@ -5872,7 +5886,7 @@
       <c r="A8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="33" t="s">
         <v>215</v>
       </c>
       <c r="C8" s="10"/>
@@ -6218,7 +6232,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6249,12 +6263,12 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" ht="30" spans="1:7">
       <c r="A3" s="5" t="s">
@@ -6272,7 +6286,7 @@
       <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -6293,7 +6307,7 @@
       <c r="E4" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="28" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="10"/>
@@ -6348,7 +6362,7 @@
       <c r="B10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -6362,7 +6376,7 @@
       <c r="B11" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10"/>
@@ -6385,8 +6399,8 @@
   <sheetPr/>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6593,7 +6607,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="30" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -6614,7 +6628,7 @@
       <c r="B22" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="8"/>
@@ -6626,7 +6640,7 @@
       <c r="B23" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="8"/>
@@ -6636,7 +6650,7 @@
         <v>247</v>
       </c>
       <c r="B24" s="24"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="8"/>
@@ -6648,7 +6662,7 @@
       <c r="B25" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="10"/>

--- a/Engineering/Packets-description.xlsx
+++ b/Engineering/Packets-description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Диплом\Skeletonization\Skeletonization\Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A385EBA-6D29-4D91-BBC9-59286E040B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA69DCF-CE28-485A-BCFA-C5113C946A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -2589,8 +2589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A72" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
@@ -3948,8 +3948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15"/>
@@ -4197,8 +4197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4735,8 +4735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5292,8 +5292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5824,8 +5824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6188,8 +6188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A33" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6689,7 +6689,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6865,8 +6865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -7175,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15"/>

--- a/Engineering/Packets-description.xlsx
+++ b/Engineering/Packets-description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Диплом\Skeletonization\Skeletonization\Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA69DCF-CE28-485A-BCFA-C5113C946A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6FF3A5-63F5-4904-BBE9-936826D40BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="TeamsSending" sheetId="8" r:id="rId7"/>
     <sheet name="Extensions" sheetId="9" r:id="rId8"/>
     <sheet name="Exceptions" sheetId="10" r:id="rId9"/>
-    <sheet name="Data" sheetId="11" r:id="rId10"/>
+    <sheet name="Views" sheetId="12" r:id="rId10"/>
+    <sheet name="Data" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="470">
   <si>
     <t>SettingsModel</t>
   </si>
@@ -1390,6 +1391,72 @@
   </si>
   <si>
     <t>containerProvider: IContainerProvider, section: string</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>Содержимое основного окна</t>
+  </si>
+  <si>
+    <t>SettingsControl</t>
+  </si>
+  <si>
+    <t>Содержимое окна настроек</t>
+  </si>
+  <si>
+    <t>HumansControl</t>
+  </si>
+  <si>
+    <t>Содержимое окна с людми</t>
+  </si>
+  <si>
+    <t>ZonesControl</t>
+  </si>
+  <si>
+    <t>Содержимое окна с зонами</t>
+  </si>
+  <si>
+    <t>DetectionControl</t>
+  </si>
+  <si>
+    <t>Содержимое основного окна детекции</t>
+  </si>
+  <si>
+    <t>QueriesControl</t>
+  </si>
+  <si>
+    <t>Содержимое окна запросов</t>
+  </si>
+  <si>
+    <t>DetectionZones</t>
+  </si>
+  <si>
+    <t>Содержимое окна зон в окне детекции</t>
+  </si>
+  <si>
+    <t>DrawingZonesControl</t>
+  </si>
+  <si>
+    <t>Содержимое основного окна отрисовки зон</t>
+  </si>
+  <si>
+    <t>ZonePoint</t>
+  </si>
+  <si>
+    <t>Содержимое отрисовки точки зоны</t>
+  </si>
+  <si>
+    <t>ZonePolygon</t>
+  </si>
+  <si>
+    <t>Содержимое отрисовки области зоны</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +2047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2201,6 +2268,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2210,12 +2286,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2228,60 +2334,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2292,15 +2377,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2607,28 +2683,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="95"/>
     </row>
     <row r="3" spans="1:7" ht="54" customHeight="1">
       <c r="A3" s="55" t="s">
@@ -2719,28 +2795,28 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="86" t="s">
+      <c r="A10" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="97"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="88"/>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="46" t="s">
@@ -2912,28 +2988,28 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="90" t="s">
+      <c r="B21" s="97"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="92"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7" ht="30">
       <c r="A22" s="46" t="s">
@@ -3051,18 +3127,18 @@
       <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="55" t="s">
@@ -3118,28 +3194,28 @@
       <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="79"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="77" t="s">
+      <c r="A37" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80" t="s">
+      <c r="B37" s="84"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="95"/>
     </row>
     <row r="38" spans="1:7" ht="30">
       <c r="A38" s="64" t="s">
@@ -3289,28 +3365,28 @@
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="76"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="79"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="80" t="s">
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="82"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="95"/>
     </row>
     <row r="47" spans="1:7" ht="30.75" thickBot="1">
       <c r="A47" s="2" t="s">
@@ -3424,28 +3500,28 @@
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="84"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="85"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="88"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="97" t="s">
+      <c r="A55" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="98"/>
-      <c r="C55" s="99"/>
-      <c r="D55" s="83" t="s">
+      <c r="B55" s="90"/>
+      <c r="C55" s="91"/>
+      <c r="D55" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E55" s="84"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="85"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="88"/>
     </row>
     <row r="56" spans="1:7" ht="30">
       <c r="A56" s="9" t="s">
@@ -3731,18 +3807,18 @@
       <c r="G70" s="8"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="74" t="s">
+      <c r="A71" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="76"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="79"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="77" t="s">
+      <c r="A72" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B72" s="78"/>
-      <c r="C72" s="93"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="85"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="55" t="s">
@@ -3787,28 +3863,28 @@
       <c r="G76" s="8"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="74" t="s">
+      <c r="A77" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="75"/>
-      <c r="C77" s="75"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="75"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="76"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="79"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="94" t="s">
+      <c r="A78" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="74" t="s">
+      <c r="B78" s="81"/>
+      <c r="C78" s="82"/>
+      <c r="D78" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E78" s="75"/>
-      <c r="F78" s="75"/>
-      <c r="G78" s="76"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="79"/>
     </row>
     <row r="79" spans="1:7" ht="30">
       <c r="A79" s="2" t="s">
@@ -3864,18 +3940,18 @@
       <c r="G81" s="8"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="74" t="s">
+      <c r="A82" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B82" s="75"/>
-      <c r="C82" s="76"/>
+      <c r="B82" s="78"/>
+      <c r="C82" s="79"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="77" t="s">
+      <c r="A83" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B83" s="78"/>
-      <c r="C83" s="93"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="85"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="55" t="s">
@@ -3912,39 +3988,450 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="D46:G46"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:G78"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172ABEB0-DA37-48BC-A0F8-28F268755AE1}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A4" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A6" s="86" t="s">
+        <v>452</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="90"/>
+      <c r="C7" s="103"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A11" s="86" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A12" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="90"/>
+      <c r="C12" s="103"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A16" s="86" t="s">
+        <v>456</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A17" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="90"/>
+      <c r="C17" s="103"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A19" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A21" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A22" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="103"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A24" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A26" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A27" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="103"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A29" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A31" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="90"/>
+      <c r="C32" s="103"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A34" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C34" s="44" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A36" s="86" t="s">
+        <v>464</v>
+      </c>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A37" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="90"/>
+      <c r="C37" s="103"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A39" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A41" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A42" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="90"/>
+      <c r="C42" s="103"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A44" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A46" s="86" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A47" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="90"/>
+      <c r="C47" s="103"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30.75" thickBot="1">
+      <c r="A49" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>450</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
@@ -3961,16 +4448,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="79"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
@@ -4105,16 +4592,16 @@
       <c r="B19" s="8"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="B20" s="85"/>
+      <c r="B20" s="88"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="B21" s="85"/>
+      <c r="B21" s="88"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
@@ -4145,16 +4632,16 @@
       <c r="B25" s="15"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="85"/>
+      <c r="B26" s="88"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="83" t="s">
+      <c r="A27" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="B27" s="85"/>
+      <c r="B27" s="88"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
@@ -4210,18 +4697,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -4262,18 +4749,18 @@
       <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="9" t="s">
@@ -4347,18 +4834,18 @@
       <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="103"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="9" t="s">
@@ -4410,18 +4897,18 @@
       <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="98"/>
-      <c r="C24" s="100"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="103"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="9" t="s">
@@ -4462,18 +4949,18 @@
       <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="98"/>
-      <c r="C30" s="100"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="103"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
@@ -4514,18 +5001,18 @@
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="103"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="9" t="s">
@@ -4599,18 +5086,18 @@
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="B44" s="84"/>
-      <c r="C44" s="85"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="97" t="s">
+      <c r="A45" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="98"/>
-      <c r="C45" s="100"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="103"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="9" t="s">
@@ -4651,18 +5138,18 @@
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="84"/>
-      <c r="C50" s="85"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="98"/>
-      <c r="C51" s="100"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="103"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="9" t="s">
@@ -4710,22 +5197,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
     <mergeCell ref="A51:C51"/>
     <mergeCell ref="A35:C35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4752,27 +5239,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
@@ -4842,18 +5329,18 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="88"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="100"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="103"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
@@ -4909,28 +5396,28 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="84" t="s">
+      <c r="B15" s="90"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="88"/>
     </row>
     <row r="16" spans="1:7" ht="30">
       <c r="A16" s="9" t="s">
@@ -4988,20 +5475,20 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="104" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -5041,20 +5528,20 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="9" t="s">
@@ -5108,20 +5595,20 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="106"/>
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="84" t="s">
+      <c r="A31" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
@@ -5161,18 +5648,18 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="100"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="103"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="9" t="s">
@@ -5217,18 +5704,18 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="83" t="s">
+      <c r="A41" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="85"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="97" t="s">
+      <c r="A42" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="100"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="103"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="9" t="s">
@@ -5265,6 +5752,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
@@ -5273,16 +5770,6 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5293,7 +5780,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:C35"/>
+      <selection activeCell="A30" sqref="A30:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5309,28 +5796,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="83" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:7" ht="30">
       <c r="A3" s="9" t="s">
@@ -5388,28 +5875,28 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="83" t="s">
+      <c r="B7" s="90"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="9" t="s">
@@ -5467,28 +5954,28 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="86" t="s">
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="102"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="9" t="s">
@@ -5597,20 +6084,20 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="105" t="s">
+      <c r="A19" s="104" t="s">
         <v>269</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
@@ -5650,28 +6137,28 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="97" t="s">
+      <c r="A25" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="86" t="s">
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="102"/>
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="9" t="s">
@@ -5740,18 +6227,18 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="97" t="s">
+      <c r="A31" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="100"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="103"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="9" t="s">
@@ -5799,22 +6286,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5825,7 +6312,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -5841,27 +6328,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="104" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7">
@@ -5931,27 +6418,27 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="90"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="33"/>
     </row>
     <row r="9" spans="1:7">
@@ -6010,18 +6497,18 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="86" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="100"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="103"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
@@ -6066,18 +6553,18 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="100"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="103"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
@@ -6122,20 +6609,20 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="105" t="s">
+      <c r="A24" s="104" t="s">
         <v>438</v>
       </c>
-      <c r="B24" s="106"/>
-      <c r="C24" s="106"/>
-      <c r="D24" s="107"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1">
       <c r="A26" s="9" t="s">
@@ -6167,18 +6654,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6205,27 +6692,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="104" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="30">
@@ -6328,18 +6815,18 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="100"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="103"/>
     </row>
     <row r="12" spans="1:7" ht="30">
       <c r="A12" s="9" t="s">
@@ -6384,18 +6871,18 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="86" t="s">
         <v>319</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="100"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="103"/>
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="9" t="s">
@@ -6473,18 +6960,18 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="100"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="103"/>
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="9" t="s">
@@ -6551,18 +7038,18 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="86" t="s">
         <v>331</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="100"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="103"/>
     </row>
     <row r="35" spans="1:7" ht="30">
       <c r="A35" s="9" t="s">
@@ -6618,18 +7105,18 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="86" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="97" t="s">
+      <c r="A41" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="100"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="103"/>
     </row>
     <row r="42" spans="1:7" ht="30">
       <c r="A42" s="9" t="s">
@@ -6666,6 +7153,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
@@ -6674,11 +7166,6 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6705,27 +7192,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="104" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="30">
@@ -6806,20 +7293,20 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="105" t="s">
+      <c r="A8" s="104" t="s">
         <v>276</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="9" t="s">
@@ -6865,7 +7352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:D25"/>
     </sheetView>
   </sheetViews>
@@ -6879,20 +7366,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="110"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:4" ht="36.950000000000003" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -6943,20 +7430,20 @@
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="9" t="s">
@@ -7007,20 +7494,20 @@
       <c r="D12" s="15"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="B13" s="106"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9" t="s">
@@ -7071,20 +7558,20 @@
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="111" t="s">
         <v>354</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="110"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="113"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
@@ -7175,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
@@ -7186,18 +7673,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="88"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="100"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="103"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="9" t="s">
@@ -7227,18 +7714,18 @@
       <c r="C5" s="15"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="86" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="100"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="103"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="9" t="s">
@@ -7268,18 +7755,18 @@
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="100"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="103"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
